--- a/CurrentWork_Delta/goals2020 Mark ACoP.xlsx
+++ b/CurrentWork_Delta/goals2020 Mark ACoP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mark\CurrentWork_Delta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB43A0C-5AE5-4A51-995D-2E439949407D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241EDDF-1EAE-4204-944B-C20CA54D00CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4845" windowWidth="23445" windowHeight="12390" tabRatio="338" xr2:uid="{DBCB2670-B4E1-494A-995E-063DF6D0BEAB}"/>
+    <workbookView xWindow="-675" yWindow="1320" windowWidth="15855" windowHeight="10020" tabRatio="338" xr2:uid="{DBCB2670-B4E1-494A-995E-063DF6D0BEAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Mark" sheetId="4" r:id="rId1"/>
@@ -105,10 +105,6 @@
     <t>Goal 4 Deliver to our Customers: Enhance automation capabilities in conjunction with ongoing enterprise initiatives</t>
   </si>
   <si>
-    <t xml:space="preserve">Goal 5 Pursue Operational Exellence: Develop expanded skills and expertise in tooling and technologies 
-</t>
-  </si>
-  <si>
     <t>Addressed subject of quality metrics, functional coverage and tracability across my teams 
 Formalized with my assigned teams build acceptance tests and production helth checks
 Worked with colleagues developing status reporting in support of VP working group Monthly meet</t>
@@ -133,6 +129,10 @@
     <t xml:space="preserve">Improve accountability through timely communication on positive and negative matters
 Elevate engagement through 100% meeting attendance and interaction, deliver  thoughtful responses, track subject over time
 Improve Scope of test automation skills over different frameworks, technologies &amp; tools, .....
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goal 5 Pursue Operational Excellence: Develop expanded skills and expertise in tooling and technologies 
 </t>
   </si>
 </sst>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6EB308-4B0D-417E-92EA-3937F6EA999C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -603,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -637,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
